--- a/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 9,81</t>
+          <t>-3,44; 10,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 19,21</t>
+          <t>2,47; 20,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,07; 63,53</t>
+          <t>41,02; 63,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 22,73</t>
+          <t>-3,29; 23,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 24,64</t>
+          <t>0,96; 24,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 49,98</t>
+          <t>32,03; 50,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 15,28</t>
+          <t>-2,16; 15,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 20,23</t>
+          <t>1,82; 19,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,81; 56,81</t>
+          <t>40,61; 56,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 293,96</t>
+          <t>-38,86; 322,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 596,45</t>
+          <t>15,73; 646,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>365,2; 2153,84</t>
+          <t>368,32; 2192,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 49,16</t>
+          <t>-5,75; 49,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 52,81</t>
+          <t>1,61; 53,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,81; 112,63</t>
+          <t>54,1; 118,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 58,13</t>
+          <t>-6,79; 60,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 81,51</t>
+          <t>4,59; 76,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>118,14; 236,25</t>
+          <t>119,98; 231,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,97</t>
+          <t>-1,11; 5,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,77</t>
+          <t>5,47; 12,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,41; 63,11</t>
+          <t>53,29; 63,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 10,62</t>
+          <t>-0,64; 10,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,37</t>
+          <t>1,12; 12,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,24; 44,07</t>
+          <t>34,25; 43,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 7,47</t>
+          <t>0,04; 7,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,82</t>
+          <t>4,15; 11,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,54; 53,3</t>
+          <t>46,0; 53,47</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 116,3</t>
+          <t>-18,07; 114,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,87; 315,11</t>
+          <t>72,64; 300,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>727,19; 1556,82</t>
+          <t>719,87; 1595,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 21,05</t>
+          <t>-1,07; 20,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 26,24</t>
+          <t>2,06; 24,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,94; 88,36</t>
+          <t>58,88; 86,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 26,95</t>
+          <t>-0,21; 25,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 43,07</t>
+          <t>12,93; 41,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>141,77; 193,32</t>
+          <t>142,65; 193,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,83</t>
+          <t>-1,26; 3,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 8,79</t>
+          <t>3,19; 8,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,34; 59,35</t>
+          <t>43,01; 59,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,33</t>
+          <t>-6,72; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 0,52</t>
+          <t>-8,25; 0,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,28; 37,71</t>
+          <t>30,31; 37,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,64</t>
+          <t>-3,74; 2,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,96</t>
+          <t>-1,77; 4,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,79; 47,96</t>
+          <t>38,4; 47,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 67,63</t>
+          <t>-15,32; 66,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 161,85</t>
+          <t>40,26; 159,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>589,21; 1127,65</t>
+          <t>607,04; 1151,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 4,2</t>
+          <t>-11,02; 3,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 0,97</t>
+          <t>-13,79; 0,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,95; 69,59</t>
+          <t>50,23; 68,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 8,37</t>
+          <t>-10,84; 7,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 12,64</t>
+          <t>-5,17; 13,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>116,27; 156,87</t>
+          <t>117,46; 157,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,52</t>
+          <t>-3,34; 3,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,19</t>
+          <t>-0,35; 6,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,26; 61,15</t>
+          <t>51,52; 61,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 9,13</t>
+          <t>-1,84; 9,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 9,01</t>
+          <t>-2,06; 8,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,6; 43,97</t>
+          <t>34,89; 44,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,57</t>
+          <t>-1,68; 5,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 7,16</t>
+          <t>-0,36; 6,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,92; 53,44</t>
+          <t>45,43; 53,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 40,56</t>
+          <t>-27,77; 40,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 71,74</t>
+          <t>-3,21; 77,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>406,13; 723,35</t>
+          <t>403,09; 742,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 18,4</t>
+          <t>-3,26; 18,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 17,54</t>
+          <t>-3,79; 17,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,42; 88,08</t>
+          <t>62,69; 89,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 18,43</t>
+          <t>-5,11; 19,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 23,88</t>
+          <t>-1,01; 23,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>131,35; 177,46</t>
+          <t>133,17; 180,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,16</t>
+          <t>-2,76; 3,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,13</t>
+          <t>2,64; 8,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>51,48; 59,17</t>
+          <t>51,5; 59,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,08</t>
+          <t>-5,3; 3,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 4,52</t>
+          <t>-4,25; 4,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,71; 39,22</t>
+          <t>31,61; 39,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,08</t>
+          <t>-3,36; 2,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,85</t>
+          <t>-0,26; 5,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,47; 48,45</t>
+          <t>42,51; 48,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 32,79</t>
+          <t>-22,58; 33,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,93; 95,51</t>
+          <t>19,56; 90,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>403,01; 637,81</t>
+          <t>403,49; 640,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 6,22</t>
+          <t>-9,89; 7,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 9,13</t>
+          <t>-8,0; 9,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,23; 80,06</t>
+          <t>58,45; 81,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 9,91</t>
+          <t>-10,02; 8,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 19,09</t>
+          <t>-0,9; 18,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125,91; 160,04</t>
+          <t>125,44; 157,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,29</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,48</t>
+          <t>4,08; 7,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>52,59; 58,29</t>
+          <t>52,26; 58,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,24</t>
+          <t>-1,57; 3,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,63</t>
+          <t>-0,96; 3,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>34,46; 38,6</t>
+          <t>34,66; 38,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,58</t>
+          <t>-0,6; 2,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,3</t>
+          <t>1,94; 5,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,53; 48,69</t>
+          <t>44,43; 48,62</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 29,33</t>
+          <t>-6,54; 28,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>44,51; 97,28</t>
+          <t>43,45; 93,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>573,57; 763,18</t>
+          <t>574,14; 770,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,06</t>
+          <t>-2,86; 5,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,89</t>
+          <t>-1,73; 6,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>61,99; 73,69</t>
+          <t>62,27; 73,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,28</t>
+          <t>-1,85; 8,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,06</t>
+          <t>6,0; 16,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>136,91; 158,94</t>
+          <t>137,87; 158,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,69</t>
+          <t>-4,04; 10,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 20,13</t>
+          <t>2,08; 18,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,02; 63,71</t>
+          <t>40,22; 63,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 23,17</t>
+          <t>-2,32; 22,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 24,68</t>
+          <t>0,03; 24,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,03; 50,52</t>
+          <t>32,0; 50,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 15,41</t>
+          <t>-1,68; 15,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 19,86</t>
+          <t>2,57; 20,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,61; 56,61</t>
+          <t>39,9; 56,9</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 322,2</t>
+          <t>-44,37; 309,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 646,64</t>
+          <t>14,01; 633,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>368,32; 2192,6</t>
+          <t>325,77; 2072,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 49,17</t>
+          <t>-4,39; 48,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 53,45</t>
+          <t>0,0; 51,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,1; 118,23</t>
+          <t>52,31; 112,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 60,28</t>
+          <t>-5,98; 60,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 76,44</t>
+          <t>7,85; 80,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>119,98; 231,27</t>
+          <t>116,4; 237,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,12</t>
+          <t>-0,8; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,57</t>
+          <t>5,47; 12,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 63,0</t>
+          <t>53,56; 62,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,67</t>
+          <t>-1,45; 10,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 12,6</t>
+          <t>1,14; 12,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,25; 43,59</t>
+          <t>34,31; 43,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 7,27</t>
+          <t>-0,21; 7,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 11,83</t>
+          <t>4,01; 12,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,0; 53,47</t>
+          <t>46,18; 53,74</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 114,29</t>
+          <t>-13,74; 133,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,64; 300,95</t>
+          <t>79,68; 302,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>719,87; 1595,7</t>
+          <t>727,11; 1630,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 20,89</t>
+          <t>-2,34; 21,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 24,43</t>
+          <t>2,04; 25,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,88; 86,15</t>
+          <t>58,58; 87,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 25,84</t>
+          <t>-0,68; 27,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 41,3</t>
+          <t>12,58; 43,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>142,65; 193,28</t>
+          <t>143,15; 195,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,72</t>
+          <t>-1,24; 3,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,43</t>
+          <t>3,06; 8,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,01; 59,36</t>
+          <t>43,2; 59,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,12</t>
+          <t>-6,9; 2,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,51</t>
+          <t>-8,51; 0,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,31; 37,8</t>
+          <t>30,43; 38,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,25</t>
+          <t>-3,43; 2,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,18</t>
+          <t>-1,69; 4,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,4; 47,9</t>
+          <t>37,44; 47,66</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 66,75</t>
+          <t>-17,13; 67,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,26; 159,15</t>
+          <t>38,5; 154,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>607,04; 1151,09</t>
+          <t>614,55; 1114,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 3,88</t>
+          <t>-11,59; 3,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 0,97</t>
+          <t>-14,27; 1,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,23; 68,85</t>
+          <t>50,24; 69,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 7,24</t>
+          <t>-10,22; 8,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 13,76</t>
+          <t>-5,08; 14,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>117,46; 157,08</t>
+          <t>115,91; 156,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,64</t>
+          <t>-3,38; 3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,93</t>
+          <t>-0,59; 6,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,52; 61,44</t>
+          <t>51,96; 61,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 9,12</t>
+          <t>-1,72; 8,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,72</t>
+          <t>-1,62; 8,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,89; 44,42</t>
+          <t>34,84; 43,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,92</t>
+          <t>-1,44; 5,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,96</t>
+          <t>0,28; 7,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45,43; 53,97</t>
+          <t>45,5; 53,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 40,2</t>
+          <t>-27,39; 38,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 77,83</t>
+          <t>-5,35; 72,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>403,09; 742,21</t>
+          <t>404,61; 719,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 18,38</t>
+          <t>-3,11; 17,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 17,31</t>
+          <t>-2,98; 17,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,69; 89,98</t>
+          <t>61,95; 88,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 19,76</t>
+          <t>-4,27; 18,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 23,19</t>
+          <t>0,78; 25,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>133,17; 180,93</t>
+          <t>133,37; 180,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,05</t>
+          <t>-3,07; 2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,78</t>
+          <t>2,89; 9,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>51,5; 59,21</t>
+          <t>51,92; 59,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,48</t>
+          <t>-5,08; 3,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,72</t>
+          <t>-3,86; 4,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,61; 39,44</t>
+          <t>31,5; 39,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,68</t>
+          <t>-3,4; 2,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,89</t>
+          <t>-0,04; 5,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,51; 48,22</t>
+          <t>42,7; 48,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 33,0</t>
+          <t>-25,13; 29,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,56; 90,93</t>
+          <t>23,67; 97,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>403,49; 640,8</t>
+          <t>400,72; 644,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 7,19</t>
+          <t>-9,61; 7,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 9,38</t>
+          <t>-7,35; 9,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,45; 81,45</t>
+          <t>58,01; 80,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 8,65</t>
+          <t>-10,17; 8,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 18,76</t>
+          <t>-0,25; 18,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125,44; 157,42</t>
+          <t>124,91; 158,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,67; 2,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,43</t>
+          <t>4,33; 7,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>52,26; 58,21</t>
+          <t>52,2; 58,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,2</t>
+          <t>-1,47; 3,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,63</t>
+          <t>-1,24; 3,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>34,66; 38,87</t>
+          <t>34,73; 39,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,56</t>
+          <t>-0,61; 2,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,22</t>
+          <t>1,99; 5,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,43; 48,62</t>
+          <t>44,48; 48,74</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 28,27</t>
+          <t>-7,43; 30,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>43,45; 93,54</t>
+          <t>46,45; 97,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>574,14; 770,35</t>
+          <t>572,2; 765,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,95</t>
+          <t>-2,66; 6,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,85</t>
+          <t>-2,21; 6,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>62,27; 73,38</t>
+          <t>62,45; 74,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,4</t>
+          <t>-1,95; 8,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,97</t>
+          <t>6,08; 17,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>137,87; 158,29</t>
+          <t>137,77; 159,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49,27</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 10,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,22; 63,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 22,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 24,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,0; 50,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 15,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 20,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,9; 56,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>160,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>814,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 309,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 633,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>325,77; 2072,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 48,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,31; 112,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 60,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 80,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>116,4; 237,39</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>49,69</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,56; 62,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 10,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 12,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,31; 43,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,18; 53,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>163,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1057,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>166,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 133,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,68; 302,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>727,11; 1630,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,58; 87,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 27,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 43,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>143,15; 195,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,47</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,2; 59,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,43; 38,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 47,66</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>827,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>137,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 67,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,5; 154,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>614,55; 1114,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,24; 69,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 14,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>115,91; 156,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,21</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,96; 61,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 43,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45,5; 53,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>540,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>154,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 38,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 72,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>404,61; 719,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 17,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,95; 88,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 18,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 25,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>133,37; 180,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>35,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>45,47</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>51,92; 59,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,5; 39,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,7; 48,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>513,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>141,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 29,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,67; 97,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>400,72; 644,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 9,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,01; 80,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 18,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124,91; 158,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>56,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>36,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>52,2; 58,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>34,73; 39,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,48; 48,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>663,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>148,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 30,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>46,45; 97,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>572,2; 765,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>62,45; 74,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>137,77; 159,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
